--- a/IbaTools/ethxlattopology/minimal_topology.xlsx
+++ b/IbaTools/ethxlattopology/minimal_topology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jijunwan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DA107C-BA48-4333-BCE8-1459086CD744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2760FA-FA70-4884-8B42-21762CC030DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="495" windowWidth="26640" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="1065" windowWidth="19305" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fabric Links" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7468" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7485" uniqueCount="242">
   <si>
     <t>1m</t>
   </si>
@@ -760,6 +760,33 @@
   </si>
   <si>
     <t>SWD24</t>
+  </si>
+  <si>
+    <t>Ethernet1/19</t>
+  </si>
+  <si>
+    <t>Ethernet1/20</t>
+  </si>
+  <si>
+    <t>Ethernet1/21</t>
+  </si>
+  <si>
+    <t>Ethernet1/22</t>
+  </si>
+  <si>
+    <t>Eth1</t>
+  </si>
+  <si>
+    <t>Ethernet1/1</t>
+  </si>
+  <si>
+    <t>Ethernet1/2</t>
+  </si>
+  <si>
+    <t>Ethernet1/3</t>
+  </si>
+  <si>
+    <t>Ethernet1/4</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1804,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1901,8 +1928,8 @@
         <v>179</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="7">
-        <v>1</v>
+      <c r="K4" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1932,8 +1959,8 @@
         <v>181</v>
       </c>
       <c r="J5" s="7"/>
-      <c r="K5" s="7">
-        <v>2</v>
+      <c r="K5" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="5" t="s">
@@ -1961,8 +1988,8 @@
         <v>183</v>
       </c>
       <c r="J6" s="7"/>
-      <c r="K6" s="7">
-        <v>3</v>
+      <c r="K6" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="5" t="s">
@@ -1990,8 +2017,8 @@
         <v>185</v>
       </c>
       <c r="J7" s="7"/>
-      <c r="K7" s="7">
-        <v>4</v>
+      <c r="K7" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="5" t="s">
@@ -2147,8 +2174,8 @@
         <v>179</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="6">
-        <v>19</v>
+      <c r="E12" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>15</v>
@@ -2186,8 +2213,8 @@
         <v>181</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="6">
-        <v>20</v>
+      <c r="E13" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="5"/>
@@ -2219,8 +2246,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="6">
-        <v>21</v>
+      <c r="E14" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="5"/>
@@ -2252,8 +2279,8 @@
         <v>185</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="6">
-        <v>22</v>
+      <c r="E15" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="5"/>
@@ -2307,8 +2334,8 @@
         <v>187</v>
       </c>
       <c r="J16" s="7"/>
-      <c r="K16" s="7">
-        <v>1</v>
+      <c r="K16" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -2338,8 +2365,8 @@
         <v>189</v>
       </c>
       <c r="J17" s="7"/>
-      <c r="K17" s="7">
-        <v>2</v>
+      <c r="K17" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="5" t="s">
@@ -2367,8 +2394,8 @@
         <v>191</v>
       </c>
       <c r="J18" s="7"/>
-      <c r="K18" s="7">
-        <v>3</v>
+      <c r="K18" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="5" t="s">
@@ -2396,8 +2423,8 @@
         <v>193</v>
       </c>
       <c r="J19" s="7"/>
-      <c r="K19" s="7">
-        <v>4</v>
+      <c r="K19" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="5" t="s">
@@ -2553,8 +2580,8 @@
         <v>187</v>
       </c>
       <c r="D24" s="5"/>
-      <c r="E24" s="6">
-        <v>19</v>
+      <c r="E24" s="6" t="s">
+        <v>233</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>15</v>
@@ -2592,8 +2619,8 @@
         <v>189</v>
       </c>
       <c r="D25" s="5"/>
-      <c r="E25" s="6">
-        <v>20</v>
+      <c r="E25" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="5"/>
@@ -2625,8 +2652,8 @@
         <v>191</v>
       </c>
       <c r="D26" s="5"/>
-      <c r="E26" s="6">
-        <v>21</v>
+      <c r="E26" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
@@ -2658,8 +2685,8 @@
         <v>193</v>
       </c>
       <c r="D27" s="5"/>
-      <c r="E27" s="6">
-        <v>22</v>
+      <c r="E27" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
@@ -2711,8 +2738,8 @@
         <v>53</v>
       </c>
       <c r="J28" s="7"/>
-      <c r="K28" s="7">
-        <v>1</v>
+      <c r="K28" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>15</v>
